--- a/target/test-classes/bestretail.xlsx
+++ b/target/test-classes/bestretail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="66">
   <si>
     <t>productname</t>
   </si>
@@ -111,27 +111,15 @@
     <t>product type</t>
   </si>
   <si>
-    <t>simple</t>
-  </si>
-  <si>
     <t>visible indivituality</t>
   </si>
   <si>
     <t>vendor</t>
   </si>
   <si>
-    <t>No vendor</t>
-  </si>
-  <si>
     <t>allow customer review</t>
   </si>
   <si>
-    <t xml:space="preserve">avialable start date </t>
-  </si>
-  <si>
-    <t xml:space="preserve">avialable end date </t>
-  </si>
-  <si>
     <t>mark as a new</t>
   </si>
   <si>
@@ -187,13 +175,52 @@
   </si>
   <si>
     <t>delivery date</t>
+  </si>
+  <si>
+    <t>display order</t>
+  </si>
+  <si>
+    <t>Grouped (product with variants)</t>
+  </si>
+  <si>
+    <t>Vendor 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>preorder availability date</t>
+  </si>
+  <si>
+    <t>call for price</t>
+  </si>
+  <si>
+    <t>mini price</t>
+  </si>
+  <si>
+    <t>max price</t>
+  </si>
+  <si>
+    <t>amount in product</t>
+  </si>
+  <si>
+    <t>unit of product</t>
+  </si>
+  <si>
+    <t>lb(s)</t>
+  </si>
+  <si>
+    <t>refernce amount</t>
+  </si>
+  <si>
+    <t>refernce unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,6 +240,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -250,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -270,12 +303,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -584,7 +619,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -595,7 +630,7 @@
     </row>
     <row r="2" spans="1:12" ht="30">
       <c r="A2" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -606,7 +641,7 @@
     </row>
     <row r="3" spans="1:12" ht="105">
       <c r="A3" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>4</v>
@@ -617,7 +652,7 @@
     </row>
     <row r="4" spans="1:12" ht="30">
       <c r="A4" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>6</v>
@@ -628,7 +663,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
@@ -639,7 +674,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>20</v>
@@ -650,7 +685,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -661,7 +696,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>23</v>
@@ -674,7 +709,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
@@ -687,7 +722,7 @@
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>27</v>
@@ -700,7 +735,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>29</v>
@@ -712,222 +747,215 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" ht="45">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>12</v>
+      <c r="C13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="7">
-        <v>45061</v>
+        <v>33</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="8">
-        <v>45224</v>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="7">
+        <v>45061</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="7">
+        <v>45214</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="45">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3">
-        <v>20</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="4">
-        <v>1500</v>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="7">
+        <v>45061</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="7">
+        <v>45071</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="45">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="4">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3">
-        <v>22</v>
-      </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="4">
-        <v>1600</v>
+        <v>35</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>12</v>
+        <v>37</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>12</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1600</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="30">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3">
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="7">
+        <v>45059</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="24">
-      <c r="A30" s="3">
-        <v>30</v>
-      </c>
       <c r="B30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
+        <v>58</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>12</v>
@@ -935,101 +963,222 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1300</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="C33" s="4">
-        <v>3.3</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="4">
-        <v>17.5</v>
+        <v>44</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C35" s="4">
-        <v>11</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" s="4">
-        <v>0.6</v>
+        <v>62</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>12</v>
+        <v>64</v>
+      </c>
+      <c r="C37" s="4">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="3">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="30">
-      <c r="A39" s="3">
-        <v>39</v>
-      </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="4">
-        <v>10</v>
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="3">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="24">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>55</v>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="4">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="30">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
